--- a/power_comp_1_row_40_40_col_2.xlsx
+++ b/power_comp_1_row_40_40_col_2.xlsx
@@ -65,19 +65,19 @@
     <t xml:space="preserve">=</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt; -0.0403</t>
+    <t xml:space="preserve">&lt; -0.0402</t>
   </si>
   <si>
     <t xml:space="preserve">&lt; -0.035</t>
   </si>
   <si>
-    <t xml:space="preserve">0.9527 0.0053</t>
+    <t xml:space="preserve">0.9525 0.0053</t>
   </si>
   <si>
     <t xml:space="preserve">0.4113 0</t>
   </si>
   <si>
-    <t xml:space="preserve">0.1221 -0.0053</t>
+    <t xml:space="preserve">0.1234 -0.0053</t>
   </si>
 </sst>
 </file>
